--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\DataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84677A48-E7C8-4813-92F3-51566E80F3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD926373-D39B-4244-9A5A-9CC30141DDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>Agustin Seisdedos</t>
-  </si>
-  <si>
     <t>CAPITAL</t>
   </si>
   <si>
@@ -100,32 +97,152 @@
     <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>ESMERALDA</t>
-  </si>
-  <si>
-    <t>9 DE JULIO</t>
-  </si>
-  <si>
-    <t>CERRITO</t>
-  </si>
-  <si>
-    <t>EneroSMKAMBA</t>
-  </si>
-  <si>
-    <t>EneroSMKAnswer</t>
-  </si>
-  <si>
-    <t>EneroSMKInterior</t>
-  </si>
-  <si>
-    <t>PreProd</t>
+    <t>FechaNacimiento</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>12/12/1980</t>
+  </si>
+  <si>
+    <t>2344</t>
+  </si>
+  <si>
+    <t>LIBERTAD</t>
+  </si>
+  <si>
+    <t>Mattioli</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>DiCroce</t>
+  </si>
+  <si>
+    <t>12/12/1981</t>
+  </si>
+  <si>
+    <t>2888</t>
+  </si>
+  <si>
+    <t>Di Croce Ruben Angel - Cta.4</t>
+  </si>
+  <si>
+    <t>Marsh</t>
+  </si>
+  <si>
+    <t>12/12/1982</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>Marsh S.A.</t>
+  </si>
+  <si>
+    <t>Aon</t>
+  </si>
+  <si>
+    <t>12/12/1983</t>
+  </si>
+  <si>
+    <t>8075</t>
+  </si>
+  <si>
+    <t>Aon Risk Services Arg Sa-Banca Seguros</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>12/12/1984</t>
+  </si>
+  <si>
+    <t>4989</t>
+  </si>
+  <si>
+    <t>Ba Managers S.A.</t>
+  </si>
+  <si>
+    <t>Quintana</t>
+  </si>
+  <si>
+    <t>12/12/1985</t>
+  </si>
+  <si>
+    <t>2717</t>
+  </si>
+  <si>
+    <t>Quintana Marcelo Hor</t>
+  </si>
+  <si>
+    <t>Pukacz</t>
+  </si>
+  <si>
+    <t>12/12/1986</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>Pukacz Abraham</t>
+  </si>
+  <si>
+    <t>Gpat</t>
+  </si>
+  <si>
+    <t>12/12/1987</t>
+  </si>
+  <si>
+    <t>4329</t>
+  </si>
+  <si>
+    <t>Gpat Compania Financiera S.A.</t>
+  </si>
+  <si>
+    <t>RegreFeb</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PruebaRefa</t>
+  </si>
+  <si>
+    <t>Fravega</t>
+  </si>
+  <si>
+    <t>7601</t>
+  </si>
+  <si>
+    <t>Fravega S.A.C.I.E.I</t>
+  </si>
+  <si>
+    <t>1297</t>
+  </si>
+  <si>
+    <t>Cen Villa Maria (N)</t>
+  </si>
+  <si>
+    <t>Barredo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +254,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,10 +286,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -506,192 +632,768 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2">
+        <v>20300110</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <v>20300111</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4">
+        <v>20300112</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>20300113</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6">
+        <v>20300108</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>20300109</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H8">
+        <v>20300100</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="G2">
-        <v>20557706</v>
-      </c>
-      <c r="H2">
-        <v>2302</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="O8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>20300101</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>20300102</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="G3">
-        <v>20557707</v>
-      </c>
-      <c r="H3">
-        <v>2344</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="O10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>20300103</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>20300104</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
         <v>28</v>
       </c>
-      <c r="G4">
-        <v>20557708</v>
-      </c>
-      <c r="H4">
-        <v>6254</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>20300105</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M13" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="M4">
-        <v>229</v>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>20300106</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>20300107</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>20300108</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0054D094-1690-4DAD-88C1-952836DB050B}"/>
-    <hyperlink ref="B3:B4" r:id="rId2" display="https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do" xr:uid="{97AD3E90-7880-49CD-8200-EFF76928B860}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{0054D094-1690-4DAD-88C1-952836DB050B}"/>
+    <hyperlink ref="C6:C7" r:id="rId2" display="https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do" xr:uid="{97AD3E90-7880-49CD-8200-EFF76928B860}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{CBDACFE4-9AAD-464A-AA75-4CB46D954678}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{09DDE080-E564-4B37-A144-486C4E0E2A75}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{455D53FD-4B68-4D97-85C2-5E788A6D4B7D}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{CC3E656A-9BF5-4302-B529-9CA7C10DA9CC}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{ED1AC2A6-4597-457E-B373-C1EADF956AB3}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{97B2B7A1-3E38-4DC0-9563-DDE2CBD7F407}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{16AFB98D-8486-4797-B18C-7D474A8D3925}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{C32C20E5-B653-474F-B15A-3BD438C33228}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{0B3716D5-CC64-46B6-904D-DBE8884C7365}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{E7266F27-FA55-47DD-9BDF-AC61C7F3CB6F}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{12475220-8EE0-4BB2-9A02-00E7E88A2CB1}"/>
+    <hyperlink ref="C5" r:id="rId14" xr:uid="{B45CCA76-F8F7-4B4B-B4ED-E03E69453B51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD926373-D39B-4244-9A5A-9CC30141DDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40153172-A9B0-4300-870A-5D6E3CD0B703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -236,6 +236,21 @@
   </si>
   <si>
     <t>Barredo</t>
+  </si>
+  <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>PruebaRegre</t>
+  </si>
+  <si>
+    <t>AnswerRegre</t>
+  </si>
+  <si>
+    <t>MattioliRegre</t>
   </si>
 </sst>
 </file>
@@ -634,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -716,13 +731,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H2">
-        <v>20300110</v>
+        <v>20300114</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
@@ -743,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="O2">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -751,10 +766,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -763,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H3">
-        <v>20300111</v>
+        <v>20300115</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>26</v>
@@ -790,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="O3">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1392,8 +1407,8 @@
     <hyperlink ref="C15" r:id="rId10" xr:uid="{C32C20E5-B653-474F-B15A-3BD438C33228}"/>
     <hyperlink ref="C16" r:id="rId11" xr:uid="{0B3716D5-CC64-46B6-904D-DBE8884C7365}"/>
     <hyperlink ref="C2" r:id="rId12" xr:uid="{E7266F27-FA55-47DD-9BDF-AC61C7F3CB6F}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{12475220-8EE0-4BB2-9A02-00E7E88A2CB1}"/>
-    <hyperlink ref="C5" r:id="rId14" xr:uid="{B45CCA76-F8F7-4B4B-B4ED-E03E69453B51}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{B45CCA76-F8F7-4B4B-B4ED-E03E69453B51}"/>
+    <hyperlink ref="C3" r:id="rId14" xr:uid="{A04A9E5E-09C2-4AA8-95D8-16223F2CDE39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40153172-A9B0-4300-870A-5D6E3CD0B703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029BC3B2-A798-45EF-A9BD-C4866893492C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029BC3B2-A798-45EF-A9BD-C4866893492C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93455A5D-B57C-4FA7-9677-2F94ABBE23B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,10 +247,10 @@
     <t>PruebaRegre</t>
   </si>
   <si>
-    <t>AnswerRegre</t>
-  </si>
-  <si>
     <t>MattioliRegre</t>
+  </si>
+  <si>
+    <t>AnswerRegr</t>
   </si>
 </sst>
 </file>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>70</v>
@@ -778,7 +778,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
         <v>70</v>

--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93455A5D-B57C-4FA7-9677-2F94ABBE23B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B1C14-820A-488D-88A4-6C2CFDE5227E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -244,13 +244,13 @@
     <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>PruebaRegre</t>
-  </si>
-  <si>
-    <t>MattioliRegre</t>
-  </si>
-  <si>
-    <t>AnswerRegr</t>
+    <t>AnswRegr</t>
+  </si>
+  <si>
+    <t>MattioliRegr</t>
+  </si>
+  <si>
+    <t>PruebaRegr</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,13 +731,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
       <c r="H2">
-        <v>20300114</v>
+        <v>20300116</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
@@ -750,9 +750,6 @@
       </c>
       <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -781,10 +778,10 @@
         <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3">
-        <v>20300115</v>
+        <v>20300117</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>26</v>
@@ -797,9 +794,6 @@
       </c>
       <c r="L3" t="s">
         <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>

--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataSource\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B1C14-820A-488D-88A4-6C2CFDE5227E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48182FB0-EC83-474C-9B4A-E91B0B23EDAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,21 +18,11 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -244,13 +234,16 @@
     <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>AnswRegr</t>
-  </si>
-  <si>
-    <t>MattioliRegr</t>
-  </si>
-  <si>
-    <t>PruebaRegr</t>
+    <t>AnswZ</t>
+  </si>
+  <si>
+    <t>PruebaZ</t>
+  </si>
+  <si>
+    <t>MattioliX</t>
+  </si>
+  <si>
+    <t>PruebaX</t>
   </si>
 </sst>
 </file>
@@ -650,7 +643,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,10 +727,10 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2">
-        <v>20300116</v>
+        <v>20300120</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
@@ -775,13 +768,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3">
-        <v>20300117</v>
+        <v>20300121</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>26</v>

--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B1C14-820A-488D-88A4-6C2CFDE5227E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A26D49-5850-4411-A623-58DA6121F6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,13 +244,13 @@
     <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>AnswRegr</t>
-  </si>
-  <si>
-    <t>MattioliRegr</t>
-  </si>
-  <si>
-    <t>PruebaRegr</t>
+    <t>AnswRegrM</t>
+  </si>
+  <si>
+    <t>PruebaRegrM</t>
+  </si>
+  <si>
+    <t>MattioliRegrM</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,10 +734,10 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2">
-        <v>20300116</v>
+        <v>20300120</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
@@ -755,7 +755,7 @@
         <v>28</v>
       </c>
       <c r="O2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -775,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
         <v>71</v>
       </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
       <c r="H3">
-        <v>20300117</v>
+        <v>20300121</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>26</v>
@@ -799,7 +799,7 @@
         <v>28</v>
       </c>
       <c r="O3">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">

--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A26D49-5850-4411-A623-58DA6121F6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A40B4E-F9F6-491B-91B5-64B461B52000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
         <v>71</v>
       </c>
       <c r="H2">
-        <v>20300120</v>
+        <v>20300122</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
@@ -781,7 +781,7 @@
         <v>71</v>
       </c>
       <c r="H3">
-        <v>20300121</v>
+        <v>20300123</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>26</v>

--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A40B4E-F9F6-491B-91B5-64B461B52000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD36842-B9E7-4C9F-A245-E176D0481E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -244,13 +244,16 @@
     <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>AnswRegrM</t>
-  </si>
-  <si>
-    <t>PruebaRegrM</t>
-  </si>
-  <si>
-    <t>MattioliRegrM</t>
+    <t>AnswSmoke</t>
+  </si>
+  <si>
+    <t>SmokeMarzo</t>
+  </si>
+  <si>
+    <t>MattioliRegrAbril</t>
+  </si>
+  <si>
+    <t>PruebaRegrAbril</t>
   </si>
 </sst>
 </file>
@@ -649,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,16 +722,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>70</v>
@@ -778,10 +781,10 @@
         <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H3">
-        <v>20300123</v>
+        <v>20300124</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>26</v>
@@ -799,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="O3">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1400,9 +1403,9 @@
     <hyperlink ref="C14" r:id="rId9" xr:uid="{16AFB98D-8486-4797-B18C-7D474A8D3925}"/>
     <hyperlink ref="C15" r:id="rId10" xr:uid="{C32C20E5-B653-474F-B15A-3BD438C33228}"/>
     <hyperlink ref="C16" r:id="rId11" xr:uid="{0B3716D5-CC64-46B6-904D-DBE8884C7365}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{E7266F27-FA55-47DD-9BDF-AC61C7F3CB6F}"/>
-    <hyperlink ref="C5" r:id="rId13" xr:uid="{B45CCA76-F8F7-4B4B-B4ED-E03E69453B51}"/>
-    <hyperlink ref="C3" r:id="rId14" xr:uid="{A04A9E5E-09C2-4AA8-95D8-16223F2CDE39}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{B45CCA76-F8F7-4B4B-B4ED-E03E69453B51}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{A04A9E5E-09C2-4AA8-95D8-16223F2CDE39}"/>
+    <hyperlink ref="C2" r:id="rId14" xr:uid="{1797607C-F3AE-4C2F-91FE-51CC7A036B42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD36842-B9E7-4C9F-A245-E176D0481E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBF7775-8EFC-4379-9CC3-6E042BD45C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,22 +238,22 @@
     <t>Barredo</t>
   </si>
   <si>
-    <t>preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>AnswSmoke</t>
-  </si>
-  <si>
-    <t>SmokeMarzo</t>
-  </si>
-  <si>
-    <t>MattioliRegrAbril</t>
-  </si>
-  <si>
-    <t>PruebaRegrAbril</t>
+    <t>AnswerDos</t>
+  </si>
+  <si>
+    <t>PruebaDos</t>
+  </si>
+  <si>
+    <t>AnswRegrAbrilDos</t>
+  </si>
+  <si>
+    <t>AnsRegrAbrilDos</t>
+  </si>
+  <si>
+    <t>MattioliRegrAbrilDos</t>
+  </si>
+  <si>
+    <t>PruebaRegrAbrilDos</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,16 +722,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>70</v>
@@ -740,7 +740,7 @@
         <v>71</v>
       </c>
       <c r="H2">
-        <v>20300122</v>
+        <v>20300126</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="O2">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -766,10 +766,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -784,7 +784,7 @@
         <v>73</v>
       </c>
       <c r="H3">
-        <v>20300124</v>
+        <v>20300127</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>26</v>
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="O3">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1007,13 +1007,13 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="H8">
-        <v>20300100</v>
+        <v>20300101</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>26</v>
@@ -1034,7 +1034,7 @@
         <v>28</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1404,8 +1404,8 @@
     <hyperlink ref="C15" r:id="rId10" xr:uid="{C32C20E5-B653-474F-B15A-3BD438C33228}"/>
     <hyperlink ref="C16" r:id="rId11" xr:uid="{0B3716D5-CC64-46B6-904D-DBE8884C7365}"/>
     <hyperlink ref="C5" r:id="rId12" xr:uid="{B45CCA76-F8F7-4B4B-B4ED-E03E69453B51}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{A04A9E5E-09C2-4AA8-95D8-16223F2CDE39}"/>
-    <hyperlink ref="C2" r:id="rId14" xr:uid="{1797607C-F3AE-4C2F-91FE-51CC7A036B42}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{EA537629-037E-4A78-9ABC-629425471EFD}"/>
+    <hyperlink ref="C3" r:id="rId14" xr:uid="{BB5826D9-5E84-44D6-B660-4FB30DCA39F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBF7775-8EFC-4379-9CC3-6E042BD45C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC206AE2-17C4-4897-886D-A518C02BE5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,16 +244,16 @@
     <t>PruebaDos</t>
   </si>
   <si>
-    <t>AnswRegrAbrilDos</t>
-  </si>
-  <si>
-    <t>AnsRegrAbrilDos</t>
-  </si>
-  <si>
-    <t>MattioliRegrAbrilDos</t>
-  </si>
-  <si>
-    <t>PruebaRegrAbrilDos</t>
+    <t>AnswRegrJunioUno</t>
+  </si>
+  <si>
+    <t>AnsRegrJunioUno</t>
+  </si>
+  <si>
+    <t>MattioliRegrJunioUno</t>
+  </si>
+  <si>
+    <t>PruebaRegrJunioUno</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>71</v>
       </c>
       <c r="H2">
-        <v>20300126</v>
+        <v>20300128</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="O2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
         <v>73</v>
       </c>
       <c r="H3">
-        <v>20300127</v>
+        <v>20300128</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>26</v>
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="O3">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">

--- a/PCQA/ExcelDatosCuentas.xlsx
+++ b/PCQA/ExcelDatosCuentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC206AE2-17C4-4897-886D-A518C02BE5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5277118C-CF11-4299-A8AA-0BF700ED6D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,16 +244,16 @@
     <t>PruebaDos</t>
   </si>
   <si>
-    <t>AnswRegrJunioUno</t>
-  </si>
-  <si>
-    <t>AnsRegrJunioUno</t>
-  </si>
-  <si>
     <t>MattioliRegrJunioUno</t>
   </si>
   <si>
     <t>PruebaRegrJunioUno</t>
+  </si>
+  <si>
+    <t>AnswRegrJulioUno</t>
+  </si>
+  <si>
+    <t>AnsRegrJulioUno</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -734,13 +734,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2">
-        <v>20300128</v>
+        <v>21300129</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="O2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -778,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3">
-        <v>20300128</v>
+        <v>21300130</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>26</v>
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="O3">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
